--- a/R/UKPDS_microvascular_coef.xlsx
+++ b/R/UKPDS_microvascular_coef.xlsx
@@ -1,20 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16327FEE-EC56-4938-B319-440E67438CFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKPDS_microvascular_coef" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Isaac Corro Ramos</author>
+  </authors>
+  <commentList>
+    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{7C9472E9-21FA-4D10-A4A2-8D3403075007}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Isaac Corro Ramos: This should be minimum for eGFR = 0 (p = 0.0766) and maximuim for eGFR = 100 (p = 0.0006) but it is not the case; it is minimum for eGFR = 59, just the limit between the two variables; then increases at eGFR = 60, and then decreases again. This is because the coefficient for eGFR &lt; 60 is more negative than for eGFR &gt; 60. This however does not affect significantly the results as occured with MI. Yet it has to be corrected. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>BLIND</t>
   </si>
@@ -140,13 +180,25 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Same as in R</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Logistic distribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +333,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -624,10 +697,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -675,6 +751,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -721,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,9 +837,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,6 +889,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -962,14 +1082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -978,9 +1098,12 @@
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1167,7 @@
         <v>3.5489999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1292,7 @@
         <v>-1.4082400000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1343,7 @@
         <v>-0.86899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,109 +1445,113 @@
         <v>-1.7441999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>-1.0309999999999999</v>
       </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="2">
         <f>IF(O32/10 &lt;6, O32/10,0)</f>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <f>$I$9*B9</f>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <f t="shared" ref="L9:P9" si="5">$I$9*C9</f>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>-0.48699999999999999</v>
       </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="2">
         <f>IF(O32/10 &gt;= 6, O32/10,0)</f>
-        <v>6</v>
-      </c>
-      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <f>$I$10*B10</f>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <f t="shared" ref="L10:P10" si="6">$I$10*C10</f>
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <f t="shared" si="6"/>
-        <v>-2.9219999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickTop="1">
+        <v>-3.4089999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1602,7 @@
         <v>-3.7520000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1654,8 +1781,32 @@
         <f>J32*10</f>
         <v>11.899999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="K15">
+        <f>$I$15*B15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:P15" si="11">$I$15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="11"/>
+        <v>0.32129999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1681,8 +1832,32 @@
         <f>L32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="K16">
+        <f>$I$16*B16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:P16" si="12">$I$16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1708,8 +1883,32 @@
         <f>M32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="K17">
+        <f>$I$17*B17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:P17" si="13">$I$17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1735,8 +1934,32 @@
         <f>H32/10</f>
         <v>13.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="K18">
+        <f>$I$18*B18</f>
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:P18" si="14">$I$18*C18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="14"/>
+        <v>1.1954</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>1.1815000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1762,8 +1985,32 @@
         <f>P32</f>
         <v>6.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="K19">
+        <f>$I$19*B19</f>
+        <v>0.34319999999999995</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:P19" si="15">$I$19*C19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="15"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>0.19139999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,8 +2036,32 @@
         <f>S32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="K20">
+        <f>$I$20*B20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:P20" si="16">$I$20*C20</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1816,8 +2087,32 @@
         <f>Y32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="K21">
+        <f>$I$21*B21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:P21" si="17">$I$21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +2138,32 @@
         <f>U32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="K22">
+        <f>$I$22*B22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:P22" si="18">$I$22*C22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1870,8 +2189,32 @@
         <f>X32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="K23">
+        <f>$I$23*B23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:P23" si="19">$I$23*C23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1897,56 +2240,166 @@
         <f>V32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="K24">
+        <f>$I$24*B24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:P24" si="20">$I$24*C24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="J25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K25">
         <f>SUM(K4:K24)</f>
-        <v>4.4191199999999995</v>
+        <v>5.7075199999999988</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:P25" si="11">SUM(L4:L24)</f>
+        <f t="shared" ref="L25:P25" si="21">SUM(L4:L24)</f>
         <v>4.2459799999999994</v>
       </c>
       <c r="M25">
-        <f t="shared" si="11"/>
-        <v>1.8112800000000004</v>
+        <f t="shared" si="21"/>
+        <v>3.2706800000000005</v>
       </c>
       <c r="N25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>-3.1564000000000001</v>
       </c>
       <c r="O25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1176000000000001</v>
       </c>
       <c r="P25">
-        <f t="shared" si="11"/>
-        <v>-10.69544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <f t="shared" si="21"/>
+        <v>-9.4882399999999993</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="J26" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="K26">
+        <f>EXP(B2+K25)*$B$32^B3</f>
+        <v>2.3132940272315144E-2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="L26:P26" si="22">EXP(D2+M25)*$B$32^D3</f>
+        <v>7.7360777140620806E-4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="22"/>
+        <v>0.15970647315052022</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="22"/>
+        <v>0.81512183069960475</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="22"/>
+        <v>2.2231219562669009E-2</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="J27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="K27">
+        <f>EXP(B2+K25)*($B$32+1)^B3</f>
+        <v>2.5873809972826418E-2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="L27:P27" si="23">EXP(D2+M25)*($B$32+1)^D3</f>
+        <v>9.7507517340081871E-4</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="23"/>
+        <v>0.17862904105934965</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="23"/>
+        <v>0.91170024665927363</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="23"/>
+        <v>2.4865250316539744E-2</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="J28" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="K28">
+        <f>1-EXP(K26-K27)</f>
+        <v>2.7371169465398859E-3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="L28:M28" si="24">1-EXP(M26-M27)</f>
+        <v>2.0144710880043437E-4</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28" si="25">1-EXP(N26-N27)</f>
+        <v>1.874466004584352E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:P28" si="26">1-EXP(O26-O27)</f>
+        <v>9.2061302076127394E-2</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="26"/>
+        <v>2.6305647387292463E-3</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2026,7 +2479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>57</v>
       </c>
@@ -2070,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P32">
         <v>6.6</v>
@@ -2109,5 +2562,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/R/UKPDS_microvascular_coef.xlsx
+++ b/R/UKPDS_microvascular_coef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16327FEE-EC56-4938-B319-440E67438CFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F80BEE-96D9-4CA1-90D3-9FB0E12581B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>BLIND</t>
   </si>
@@ -185,10 +185,10 @@
     <t>Same as in R</t>
   </si>
   <si>
-    <t>To do</t>
-  </si>
-  <si>
     <t>Logistic distribution</t>
+  </si>
+  <si>
+    <t>Different formula</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,8 +1098,11 @@
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2307,11 +2310,12 @@
         <f>EXP(B2+K25)*$B$32^B3</f>
         <v>2.3132940272315144E-2</v>
       </c>
-      <c r="L26" t="s">
-        <v>43</v>
+      <c r="L26" s="4">
+        <f>EXP(-(C2+L25))</f>
+        <v>1151.7294946374295</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="L26:P26" si="22">EXP(D2+M25)*$B$32^D3</f>
+        <f t="shared" ref="M26:P26" si="22">EXP(D2+M25)*$B$32^D3</f>
         <v>7.7360777140620806E-4</v>
       </c>
       <c r="N26">
@@ -2339,11 +2343,12 @@
         <f>EXP(B2+K25)*($B$32+1)^B3</f>
         <v>2.5873809972826418E-2</v>
       </c>
-      <c r="L27" t="s">
-        <v>43</v>
+      <c r="L27" s="4">
+        <f>1+L26</f>
+        <v>1152.7294946374295</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="L27:P27" si="23">EXP(D2+M25)*($B$32+1)^D3</f>
+        <f t="shared" ref="M27:P27" si="23">EXP(D2+M25)*($B$32+1)^D3</f>
         <v>9.7507517340081871E-4</v>
       </c>
       <c r="N27">
@@ -2371,11 +2376,12 @@
         <f>1-EXP(K26-K27)</f>
         <v>2.7371169465398859E-3</v>
       </c>
-      <c r="L28" t="s">
-        <v>43</v>
+      <c r="L28" s="4">
+        <f>1-(L26/L27)</f>
+        <v>8.6750621429576569E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="L28:M28" si="24">1-EXP(M26-M27)</f>
+        <f t="shared" ref="M28" si="24">1-EXP(M26-M27)</f>
         <v>2.0144710880043437E-4</v>
       </c>
       <c r="N28">
@@ -2395,7 +2401,12 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L30" s="4" t="s">
         <v>44</v>
       </c>
     </row>

--- a/R/UKPDS_microvascular_coef.xlsx
+++ b/R/UKPDS_microvascular_coef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F80BEE-96D9-4CA1-90D3-9FB0E12581B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D4930-63CD-467F-8B43-7494B2F84925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
